--- a/Bridge 　Create 仕様書(新改).xlsx
+++ b/Bridge 　Create 仕様書(新改).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書について" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>岩本</t>
     <rPh sb="0" eb="2">
@@ -138,6 +138,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -147,15 +150,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA3A3FF"/>
+      <color rgb="FFA27DFF"/>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFFF0505"/>
+      <color rgb="FFC8C850"/>
+      <color rgb="FF3366FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -408,15 +418,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>186417</xdr:rowOff>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>138792</xdr:rowOff>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -425,7 +435,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3419474" y="1615167"/>
+          <a:off x="3400424" y="1796142"/>
           <a:ext cx="1362076" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -478,15 +488,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>31296</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>117021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>214993</xdr:rowOff>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>62593</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -495,7 +505,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3438525" y="2650671"/>
+          <a:off x="3448050" y="3212646"/>
           <a:ext cx="1362076" cy="421822"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -535,77 +545,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>125186</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>70757</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3438524" y="3697061"/>
-          <a:ext cx="1362076" cy="421821"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ゲーム画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>14968</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>5443</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>681718</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>72118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>189140</xdr:rowOff>
+      <xdr:rowOff>17690</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -614,7 +563,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3443968" y="4767943"/>
+          <a:off x="3424918" y="4596493"/>
           <a:ext cx="1356633" cy="421822"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -713,15 +662,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>481013</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>185738</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>126206</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -730,7 +679,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3910013" y="2071687"/>
+          <a:off x="3900488" y="2424112"/>
           <a:ext cx="390525" cy="559594"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -767,15 +716,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>116681</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -784,7 +733,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3924300" y="3095626"/>
+          <a:off x="3933825" y="3819526"/>
           <a:ext cx="381000" cy="583405"/>
         </a:xfrm>
         <a:prstGeom prst="upDownArrow">
@@ -827,24 +776,516 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:colOff>485840</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:colOff>194704</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>31097</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="上下矢印 11"/>
+        <xdr:cNvPr id="14" name="下矢印 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3914775" y="4124326"/>
+          <a:off x="3914840" y="5324938"/>
+          <a:ext cx="394664" cy="421159"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502444</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>223837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>207169</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69056</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="下矢印 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3931444" y="1176337"/>
+          <a:ext cx="390525" cy="559594"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="704850"/>
+          <a:ext cx="1104900" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>267892</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>141686</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>89296</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="下矢印 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1038226" y="804862"/>
+          <a:ext cx="390525" cy="559594"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="1428750"/>
+          <a:ext cx="1104900" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="左右矢印 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="1581150"/>
+          <a:ext cx="647700" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="704850"/>
+          <a:ext cx="1104900" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>単方向</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="1419225"/>
+          <a:ext cx="1104900" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>双方向</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>273843</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>264318</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>73819</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1645443" y="5836444"/>
+          <a:ext cx="1362075" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ゲームオーバー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="上下矢印 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3165438">
+          <a:off x="2800349" y="5124451"/>
           <a:ext cx="381000" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="upDownArrow">
@@ -886,562 +1327,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>485840</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>86188</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>194704</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>31097</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="下矢印 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3914840" y="5324938"/>
-          <a:ext cx="394664" cy="421159"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>502444</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>207169</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>211931</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="下矢印 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3931444" y="1081087"/>
-          <a:ext cx="390525" cy="559594"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="676275" y="704850"/>
-          <a:ext cx="1104900" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>267892</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>175021</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>141686</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>89296</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="下矢印 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="1038226" y="804862"/>
-          <a:ext cx="390525" cy="559594"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="676275" y="1428750"/>
-          <a:ext cx="1104900" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="左右矢印 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="895350" y="1581150"/>
-          <a:ext cx="647700" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="C00000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1781175" y="704850"/>
-          <a:ext cx="1104900" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>単方向</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1781175" y="1419225"/>
-          <a:ext cx="1104900" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>双方向</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>273843</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>121444</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>264318</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>73819</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1645443" y="5836444"/>
-          <a:ext cx="1362075" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ゲームオーバー</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="上下矢印 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="3165438">
-          <a:off x="2800349" y="5124451"/>
-          <a:ext cx="381000" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="upDownArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 45000"/>
-            <a:gd name="adj2" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="C00000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>57148</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -1456,8 +1345,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="3598068" y="3879054"/>
-          <a:ext cx="3509961" cy="990602"/>
+          <a:off x="3864768" y="4145754"/>
+          <a:ext cx="2976561" cy="990602"/>
         </a:xfrm>
         <a:prstGeom prst="uturnArrow">
           <a:avLst>
@@ -1495,6 +1384,1429 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4391025" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>ボタンについて</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="1047750"/>
+          <a:ext cx="2028825" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="A3A3FF"/>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="247650" y="990599"/>
+          <a:ext cx="2057400" cy="419101"/>
+          <a:chOff x="247650" y="990599"/>
+          <a:chExt cx="2057400" cy="419101"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="角丸四角形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="247650" y="1028700"/>
+            <a:ext cx="2057400" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="C8C850"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="561975" y="990599"/>
+            <a:ext cx="1504950" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>戻る</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="3366FF"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="1047750"/>
+          <a:ext cx="1323975" cy="304799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>STAGE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2133600"/>
+          <a:ext cx="3048000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>デザインと配置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>仮</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="グループ化 9"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="257175" y="1590674"/>
+          <a:ext cx="2057400" cy="419101"/>
+          <a:chOff x="247650" y="990599"/>
+          <a:chExt cx="2057400" cy="419101"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="角丸四角形 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="247650" y="1028700"/>
+            <a:ext cx="2057400" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0505"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="561975" y="990599"/>
+            <a:ext cx="1504950" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>次へ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="3366FF"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="2619375"/>
+          <a:ext cx="5010150" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>・ボタンは角の丸い長方形</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>・色は、戻るボタンがライトグリーン、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>STAGE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>選択ボタンと再挑戦ボタンはライトブルー、次へボタンは赤色</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>・戻るボタンは画面右上に配置</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>STAGE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>選択ボタンと次へボタンと再挑戦ボタンは画面中央より少し下</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="グループ化 16"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2752725" y="1590674"/>
+          <a:ext cx="2057400" cy="419101"/>
+          <a:chOff x="247650" y="990599"/>
+          <a:chExt cx="2057400" cy="419101"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:srgbClr val="A3A3FF"/>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="角丸四角形 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="247650" y="1028700"/>
+            <a:ext cx="2057400" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="561975" y="990599"/>
+            <a:ext cx="1504950" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>再挑戦</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="3366FF"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4267200"/>
+          <a:ext cx="2266950" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>基本仕様</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="4772025"/>
+          <a:ext cx="3600450" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・各ボタンの上で左クリックすると効果音を再生し、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　その後ボタンに応じた動作を行う</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6191250"/>
+          <a:ext cx="4391025" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>？ボタンについて</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8429625"/>
+          <a:ext cx="3048000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>デザインと配置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>仮</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="8915400"/>
+          <a:ext cx="5010150" cy="914399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>・ボタンは角の丸い正方形</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>・色はオレンジ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>・画面左上に配置</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10010775"/>
+          <a:ext cx="2266950" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>基本仕様</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="10515600"/>
+          <a:ext cx="3600450" cy="1571626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ボタンの上で左クリックすると効果音を再生し、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　他のボタンのクリック判定をすべて停止させ、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　？ボタンを押したシーンに対応した説明書を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　画面に表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ゲーム画面シーンでクリックした場合、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　残り制限時間とキャラクターの動きも停止させる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="角丸四角形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="7258050"/>
+          <a:ext cx="962025" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="7143750"/>
+          <a:ext cx="866775" cy="1019175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400"/>
+            <a:t>？</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1775,39 +3087,39 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1842,28 +3154,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="L1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="33" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M33" t="s">
@@ -1884,20 +3196,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
